--- a/Apresentação final/GPN/Time 1 - Planilha de Indicadores de Processo.xlsx
+++ b/Apresentação final/GPN/Time 1 - Planilha de Indicadores de Processo.xlsx
@@ -687,7 +687,7 @@
     <t>Cronometragem de tempo desde o inicio até o fim da análise documental de um candidato</t>
   </si>
   <si>
-    <t>A partir do colaborador atuante no processo</t>
+    <t>A partir do tempo de acesso no sistema (login e logout) do funcionário</t>
   </si>
 </sst>
 </file>
